--- a/Code/notebook/lag investigation/different period.xlsx
+++ b/Code/notebook/lag investigation/different period.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究生\IAQF\IAQF2021\Code\notebook\lag investigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA13608-CF9A-4291-AD03-CA413440CC63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5902FDA2-9491-4C6B-9467-36DB080FE15B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2020" windowWidth="9810" windowHeight="10140" firstSheet="1" activeTab="1" xr2:uid="{3E0CECB4-9AA5-43C7-B2B4-E2050FE9ACEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{3E0CECB4-9AA5-43C7-B2B4-E2050FE9ACEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Different period test analysis" sheetId="2" r:id="rId1"/>
     <sheet name="Crude future gasoline" sheetId="4" r:id="rId2"/>
     <sheet name="Crude price gasoline" sheetId="6" r:id="rId3"/>
     <sheet name="Crude price co2" sheetId="5" r:id="rId4"/>
+    <sheet name="Data summary" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>Regression models</t>
   </si>
@@ -153,12 +154,96 @@
     <t>no add</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>crude_price vs. CO2</t>
+  </si>
+  <si>
+    <t>crude_price vs. gas_price</t>
+  </si>
+  <si>
+    <t>crude_future_price vs. gas_price</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Gasoline price</t>
+  </si>
+  <si>
+    <t>Crude oil price</t>
+  </si>
+  <si>
+    <t>Crude oil futures price</t>
+  </si>
+  <si>
+    <t>Electric vechicle ETF Weekly</t>
+  </si>
+  <si>
+    <t>Electric vechicle ETF Daily</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Coal Consumption</t>
+  </si>
+  <si>
+    <t>Natural Gas Consumption</t>
+  </si>
+  <si>
+    <t>US population</t>
+  </si>
+  <si>
+    <t>Public Roads</t>
+  </si>
+  <si>
+    <t>US urban population</t>
+  </si>
+  <si>
+    <t>Crude oil production</t>
+  </si>
+  <si>
+    <t>Dow Jones U.S. Automobiles &amp; Parts Index</t>
+  </si>
+  <si>
+    <t>Total sale of automobiles in USA seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Average state fuel taxes</t>
+  </si>
+  <si>
+    <t>S&amp;P GSCI Live Cattle Index Spot - weekly</t>
+  </si>
+  <si>
+    <t>Tree cover loss in the US</t>
+  </si>
+  <si>
+    <t>US real GDP</t>
+  </si>
+  <si>
+    <t>USD Mexican exchange rate</t>
+  </si>
+  <si>
+    <t>Whole period</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +292,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +377,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12328,15 +12434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12740,8 +12846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5759A525-25F8-45B2-8B32-941D592C33B1}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13299,8 +13405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4274533E-7E57-4C57-934E-9C7ABEF27A45}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13635,7 +13741,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13643,8 +13750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C7A01-D723-4334-AB01-81EB5BCFCAA2}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13961,7 +14068,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13969,8 +14077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF2DE35-3E19-4676-919F-E0EB0C0F0DA1}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14388,6 +14496,370 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6FF973-0939-4368-B924-60F00E329A62}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.4140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="14" customWidth="1"/>
+    <col min="6" max="7" width="4" style="14" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="4.08203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="4" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="25" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="25" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>